--- a/Exercício 01.xlsx
+++ b/Exercício 01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoãoDW\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BC7CC9-275F-4C08-9D44-2B7E2C9833D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A80C0EA-F283-464B-AFD3-9276CFCD1083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,10 +241,10 @@
     </r>
   </si>
   <si>
-    <t>RECURSO 2</t>
-  </si>
-  <si>
-    <t>RECURSO 1</t>
+    <t>RECURSO 1 Usuarios</t>
+  </si>
+  <si>
+    <t>RECURSO 2 Publicações</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -602,7 +602,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -624,7 +624,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -646,7 +646,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="12.75">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -668,7 +668,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="12.75">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -690,7 +690,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="12.75">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -736,7 +736,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
